--- a/デモムービー/開始でも.xlsx
+++ b/デモムービー/開始でも.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE9447-8D3D-426A-B8B9-C342E7467194}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A983B-1F88-4A40-9A77-CDA397E9CD19}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>ロボットが入場してくる</t>
     <rPh sb="5" eb="7">
@@ -104,6 +104,32 @@
   </si>
   <si>
     <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラを射影機の前に移動</t>
+    <rPh sb="4" eb="6">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストが終わったら、カメラを移動</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -778,16 +804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>410936</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63554</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>234044</xdr:rowOff>
+      <xdr:rowOff>99573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
+      <xdr:colOff>434149</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>117182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -802,8 +828,188 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="410936" y="13950044"/>
-          <a:ext cx="1728107" cy="1006929"/>
+          <a:off x="747113" y="13277691"/>
+          <a:ext cx="1737712" cy="958903"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>138780</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>143214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C8A95C-BB7A-4CAB-B3FC-F16F5B6A7381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100853" y="14186647"/>
+          <a:ext cx="2772162" cy="2429214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6466A0FF-6C03-4F1A-91EF-27AAC748BD7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134472" y="16173449"/>
+          <a:ext cx="2667000" cy="443433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>博士のセリフ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552131</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>16649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>239167</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>34258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矢印: 下 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80F4007-67C4-4274-B592-37CFF1379E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552131" y="16724620"/>
+          <a:ext cx="1737712" cy="958903"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1102,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1125,11 +1331,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="15" spans="1:6">
       <c r="F15" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
         <v>4</v>
@@ -1140,23 +1356,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="38" spans="9:9">
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="2:7">
       <c r="B54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="61" spans="2:7">
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
     </row>
